--- a/datas/test_datas.xlsx
+++ b/datas/test_datas.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="3" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="4" r:id="rId3"/>
+    <sheet name="invest" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>case_id</t>
   </si>
@@ -75,7 +76,7 @@
     <t>member/login</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","pwd":"${pwd}"}</t>
+    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
   </si>
   <si>
     <t>成功登陆</t>
@@ -102,22 +103,22 @@
     <t>member/recharge</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":"100"}</t>
+    <t>{"mobilephone":"${normal_user}","amount":"100"}</t>
   </si>
   <si>
     <t>充值成功</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":"200"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":""}</t>
+    <t>{"mobilephone":"","amount":"200"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","amount":""}</t>
   </si>
   <si>
     <t>充值金额为空</t>
   </si>
   <si>
-    <t>{"mobilephone":"","amount":"100"}</t>
+    <t>{"mobilephone":"18781788881","amount":"100"}</t>
   </si>
   <si>
     <t>手机号不存在</t>
@@ -129,28 +130,76 @@
     <t>手机号格式错误</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":"100.9999"}</t>
+    <t>{"mobilephone":"${normal_user}","amount":"100.9999"}</t>
   </si>
   <si>
     <t>充值金额小数超过两位</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":"-100"}</t>
+    <t>{"mobilephone":"${normal_user}","amount":"-100"}</t>
   </si>
   <si>
     <t>金额小于0</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":"499999.99"}</t>
+    <t>{"mobilephone":"${normal_user}","amount":"500000.01"}</t>
   </si>
   <si>
     <t>金额大于50w</t>
   </si>
   <si>
-    <t>{"mobilephone":"&amp;{normal_user}","amount":"100p"}</t>
+    <t>{"mobilephone":"${normal_user}","amount":"100p"}</t>
   </si>
   <si>
     <t>金额为非数字</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${admin_user}","pwd":"${admin_pwd}"}</t>
+  </si>
+  <si>
+    <t>管理员登陆</t>
+  </si>
+  <si>
+    <t>loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId":"${loan_member_id}","title":"随便输入","amount":"10000","loanRate":"10.11","loanTerm":"30","loanDateType":"2","repaymemtWay":"11","biddingDays":"5"}</t>
+  </si>
+  <si>
+    <t>管理员加标的</t>
+  </si>
+  <si>
+    <t>loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":4}</t>
+  </si>
+  <si>
+    <t>管理员审核</t>
+  </si>
+  <si>
+    <t>投资人正常登陆</t>
+  </si>
+  <si>
+    <t>member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"100"}</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":""}</t>
+  </si>
+  <si>
+    <t>投资人投资不输入金额</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"-100"}</t>
+  </si>
+  <si>
+    <t>投资人投资输入负数</t>
   </si>
 </sst>
 </file>
@@ -158,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,6 +227,128 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -194,133 +365,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,6 +380,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,7 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,163 +452,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +603,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -592,6 +626,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -603,6 +646,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,26 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,174 +717,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,135 +1240,135 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8" style="12" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="69.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.0666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9583333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.9583333333333" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
         <v>10001</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
         <v>10001</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5">
         <v>20103</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
         <v>20103</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1335,129 +1387,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8" style="12" customWidth="1"/>
     <col min="2" max="2" width="58.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="57.2" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.0666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9583333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.9583333333333" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
         <v>10001</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
         <v>20111</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5">
         <v>20103</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
         <v>20103</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1471,266 +1523,469 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="57.2" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.0666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9583333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.9583333333333" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20103</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20115</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20104</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20109</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20116</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5">
+        <v>20117</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20117</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20118</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="123.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="49.5" spans="1:8">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
         <v>10001</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5">
         <v>10001</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
-        <v>20103</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>20103</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20104</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="10">
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6">
-        <v>20109</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="4">
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5">
+        <v>11003</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6">
-        <v>20116</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6">
-        <v>20117</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6">
-        <v>20117</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20118</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <v>11007</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
